--- a/examples/interview_template.xlsx
+++ b/examples/interview_template.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgoer\Documents\GitHub\glipr\sheet-generator\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8A4AF4-CA6C-42B7-BE7C-35431D2828D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC031E5-DD0D-45BD-B144-76AC42EBDB2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12870" yWindow="-13620" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{8FA2D29C-3075-4485-8395-BC80569BA698}"/>
+    <workbookView xWindow="9225" yWindow="1830" windowWidth="38700" windowHeight="15315" activeTab="1" xr2:uid="{8FA2D29C-3075-4485-8395-BC80569BA698}"/>
   </bookViews>
   <sheets>
-    <sheet name="Interview Marks" sheetId="3" r:id="rId1"/>
+    <sheet name="Rubric" sheetId="3" r:id="rId1"/>
     <sheet name="Questions" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Correctness</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>TIMER GOES HERE</t>
+  </si>
+  <si>
+    <t>NAME GOES HERE</t>
   </si>
 </sst>
 </file>
@@ -962,31 +965,70 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="21" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1010,83 +1052,42 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="21" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1393,7 +1394,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1404,7 +1405,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:E9"/>
+      <selection activeCell="I10" sqref="I10:P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1426,12 +1427,12 @@
   <sheetData>
     <row r="1" spans="1:18" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="67"/>
       <c r="F1" s="5" t="s">
         <v>25</v>
       </c>
@@ -1439,50 +1440,50 @@
         <v>19</v>
       </c>
       <c r="H1" s="34"/>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="69"/>
-      <c r="K1" s="70"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="50"/>
       <c r="L1" s="36"/>
-      <c r="M1" s="71" t="s">
+      <c r="M1" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="73"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="53"/>
       <c r="Q1" s="35"/>
     </row>
     <row r="2" spans="1:18" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="55" t="e">
+      <c r="B2" s="68" t="e">
         <f>_xlfn.CONCAT(LEFT(#REF!, 30), "…")</f>
         <v>#REF!</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70"/>
       <c r="F2" s="25"/>
       <c r="G2" s="12"/>
       <c r="H2" s="35"/>
       <c r="I2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="60" t="s">
+      <c r="J2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="61"/>
+      <c r="K2" s="56"/>
       <c r="L2" s="32"/>
       <c r="M2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="60" t="s">
+      <c r="N2" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="74"/>
-      <c r="P2" s="61"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="56"/>
       <c r="Q2" s="37"/>
       <c r="R2" s="2"/>
     </row>
@@ -1490,32 +1491,32 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="55" t="e">
+      <c r="B3" s="68" t="e">
         <f>_xlfn.CONCAT(LEFT(#REF!, 30), "…")</f>
         <v>#REF!</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="25"/>
       <c r="G3" s="13"/>
       <c r="H3" s="15"/>
       <c r="I3" s="9">
         <v>10</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="63"/>
+      <c r="K3" s="47"/>
       <c r="L3" s="32"/>
       <c r="M3" s="9">
         <v>10</v>
       </c>
-      <c r="N3" s="62" t="s">
+      <c r="N3" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="67"/>
-      <c r="P3" s="63"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="47"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="1"/>
     </row>
@@ -1523,105 +1524,105 @@
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="55" t="e">
+      <c r="B4" s="68" t="e">
         <f>_xlfn.CONCAT(LEFT(#REF!, 30), "…")</f>
         <v>#REF!</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="57"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="25"/>
       <c r="G4" s="12"/>
       <c r="H4" s="15"/>
       <c r="I4" s="9">
         <v>8</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="63"/>
+      <c r="K4" s="47"/>
       <c r="L4" s="32"/>
       <c r="M4" s="9">
         <v>8</v>
       </c>
-      <c r="N4" s="62" t="s">
+      <c r="N4" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="67"/>
-      <c r="P4" s="63"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="47"/>
       <c r="Q4" s="35"/>
     </row>
     <row r="5" spans="1:18" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="55" t="e">
+      <c r="B5" s="68" t="e">
         <f>_xlfn.CONCAT(LEFT(#REF!, 30), "…")</f>
         <v>#REF!</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="25"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
       <c r="I5" s="9">
         <v>6</v>
       </c>
-      <c r="J5" s="62" t="s">
+      <c r="J5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="63"/>
+      <c r="K5" s="47"/>
       <c r="L5" s="32"/>
       <c r="M5" s="9">
         <v>6</v>
       </c>
-      <c r="N5" s="62" t="s">
+      <c r="N5" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="67"/>
-      <c r="P5" s="63"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="47"/>
       <c r="Q5" s="35"/>
     </row>
     <row r="6" spans="1:18" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="64" t="e">
+      <c r="B6" s="61" t="e">
         <f>_xlfn.CONCAT(LEFT(#REF!, 30), "…")</f>
         <v>#REF!</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="25"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
       <c r="I6" s="9">
         <v>4</v>
       </c>
-      <c r="J6" s="62" t="s">
+      <c r="J6" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="63"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="32"/>
       <c r="M6" s="9">
         <v>4</v>
       </c>
-      <c r="N6" s="62" t="s">
+      <c r="N6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="67"/>
-      <c r="P6" s="63"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="47"/>
       <c r="Q6" s="35"/>
     </row>
     <row r="7" spans="1:18" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22"/>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
       <c r="E7" s="58"/>
       <c r="F7" s="23">
         <f>SUM(F2:F6)</f>
@@ -1634,29 +1635,29 @@
       <c r="I7" s="6">
         <v>2</v>
       </c>
-      <c r="J7" s="62" t="s">
+      <c r="J7" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="63"/>
+      <c r="K7" s="47"/>
       <c r="L7" s="32"/>
       <c r="M7" s="9">
         <v>2</v>
       </c>
-      <c r="N7" s="62" t="s">
+      <c r="N7" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="67"/>
-      <c r="P7" s="63"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="47"/>
       <c r="Q7" s="35"/>
     </row>
     <row r="8" spans="1:18" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
       <c r="F8" s="26">
         <f>F7*40/50</f>
         <v>0</v>
@@ -1668,37 +1669,37 @@
       <c r="I8" s="7">
         <v>0</v>
       </c>
-      <c r="J8" s="48" t="s">
+      <c r="J8" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="49"/>
+      <c r="K8" s="73"/>
       <c r="L8" s="16"/>
       <c r="M8" s="9">
         <v>0</v>
       </c>
-      <c r="N8" s="62" t="s">
+      <c r="N8" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="67"/>
-      <c r="P8" s="63"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="47"/>
       <c r="Q8" s="35"/>
     </row>
     <row r="9" spans="1:18" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="24"/>
       <c r="G9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="31"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
@@ -1707,13 +1708,13 @@
       <c r="Q9" s="39"/>
     </row>
     <row r="10" spans="1:18" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
-      <c r="B10" s="46" t="s">
+      <c r="A10" s="42"/>
+      <c r="B10" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="59"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="60"/>
       <c r="F10" s="27">
         <f>F8+F9</f>
         <v>0</v>
@@ -1721,40 +1722,62 @@
       <c r="G10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="43"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
     </row>
     <row r="12" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="29"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
     </row>
     <row r="13" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I13" s="28"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="I10:P10"/>
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="M1:P1"/>
@@ -1766,26 +1789,6 @@
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F9" xr:uid="{973CF679-413F-4330-B4EC-D125C6AF5DB1}">
@@ -1806,7 +1809,7 @@
   <dimension ref="B1:O992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1817,163 +1820,163 @@
   <sheetData>
     <row r="1" spans="2:15" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="87"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
     </row>
     <row r="3" spans="2:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="86"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="85"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="80"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
     </row>
     <row r="4" spans="2:15" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="84"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="83"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
     </row>
     <row r="5" spans="2:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
     </row>
     <row r="6" spans="2:15" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
     </row>
     <row r="7" spans="2:15" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
     </row>
     <row r="8" spans="2:15" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="81"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
     </row>
     <row r="9" spans="2:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
     </row>
     <row r="10" spans="2:15" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
     </row>
     <row r="11" spans="2:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
     </row>
     <row r="12" spans="2:15" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
       <c r="G12" s="90"/>
       <c r="H12" s="90"/>
       <c r="I12" s="90"/>
       <c r="J12" s="90"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
     </row>
     <row r="13" spans="2:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25"/>
@@ -2956,14 +2959,8 @@
     <row r="991" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="992" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="1">
     <mergeCell ref="B2:E4"/>
-    <mergeCell ref="G8:J12"/>
-    <mergeCell ref="L10:O12"/>
-    <mergeCell ref="L2:O6"/>
-    <mergeCell ref="G2:J6"/>
-    <mergeCell ref="B8:E12"/>
-    <mergeCell ref="L8:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
 </worksheet>
